--- a/Integrated_Res06_frequency_tab.xlsx
+++ b/Integrated_Res06_frequency_tab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simone/Documents/GitHub/SP028_Autoimmunity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55FCD94F-2300-A54C-815E-FEA2AC739A1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5D614D66-92B1-AB47-82C2-3F284022DA42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14820"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Patient_freq" sheetId="4" r:id="rId1"/>
@@ -1810,7 +1810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DL60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -21799,7 +21799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -22217,8 +22217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23698,7 +23698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>

--- a/Integrated_Res06_frequency_tab.xlsx
+++ b/Integrated_Res06_frequency_tab.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simone/Documents/GitHub/SP028_Autoimmunity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5D614D66-92B1-AB47-82C2-3F284022DA42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF4A820B-7209-BC4B-A108-33D352198552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14820" activeTab="3"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patient_freq" sheetId="4" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <definedName name="Raw_ClusterRes6_along_TumortType_3" localSheetId="2">Dataset_cell_freq!$A$2:$L$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,9 +46,9 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Norm_ClusterRes6_along_PatientNumber_3" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/simone/Documents/SP028_3analisi/Norm_ClusterRes6_along_PatientNumber_3.csv" thousands="_x0000_">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Norm_ClusterRes6_along_PatientNumber_3" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/simone/Documents/SP028_3analisi/Norm_ClusterRes6_along_PatientNumber_3.csv" thousands="_x0000_">
       <textFields count="116">
         <textField/>
         <textField/>
@@ -168,8 +169,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="Norm_Col_ClusterRes6_along_CellFromTumor_3" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/simone/Documents/SP028_3analisi/Norm_Col_ClusterRes6_along_CellFromTumor_3.csv" thousands="_x0000_">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Norm_Col_ClusterRes6_along_CellFromTumor_3" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/simone/Documents/SP028_3analisi/Norm_Col_ClusterRes6_along_CellFromTumor_3.csv" thousands="_x0000_">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -177,8 +178,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="Norm_index_ClusterRes6_along_CellFromTumor_3" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/simone/Documents/SP028_3analisi/Norm_index_ClusterRes6_along_CellFromTumor_3.csv" thousands="_x0000_">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="Norm_index_ClusterRes6_along_CellFromTumor_3" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/simone/Documents/SP028_3analisi/Norm_index_ClusterRes6_along_CellFromTumor_3.csv" thousands="_x0000_">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -186,8 +187,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="Norm_Index_ClusterRes6_along_PatientNumber_3" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/simone/Documents/SP028_3analisi/Norm_Index_ClusterRes6_along_PatientNumber_3.csv" thousands="_x0000_">
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="Norm_Index_ClusterRes6_along_PatientNumber_3" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/simone/Documents/SP028_3analisi/Norm_Index_ClusterRes6_along_PatientNumber_3.csv" thousands="_x0000_">
       <textFields count="116">
         <textField/>
         <textField/>
@@ -308,8 +309,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="Norm_index_ClusterRes6_along_TumortType_3" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/simone/Documents/SP028_3analisi/Norm_index_ClusterRes6_along_TumortType_3.csv" thousands="_x0000_">
+  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" name="Norm_index_ClusterRes6_along_TumortType_3" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/simone/Documents/SP028_3analisi/Norm_index_ClusterRes6_along_TumortType_3.csv" thousands="_x0000_">
       <textFields count="12">
         <textField/>
         <textField/>
@@ -326,8 +327,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="Norm_num_cell_versus_dataset_3" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/simone/Documents/SP028_3analisi/Norm_num_cell_versus_dataset_3.csv" thousands="_x0000_">
+  <connection id="6" xr16:uid="{00000000-0015-0000-FFFF-FFFF05000000}" name="Norm_num_cell_versus_dataset_3" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/simone/Documents/SP028_3analisi/Norm_num_cell_versus_dataset_3.csv" thousands="_x0000_">
       <textFields count="12">
         <textField/>
         <textField/>
@@ -344,8 +345,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" name="Raw_ClusterRes6_along_CellFromTumor_3" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/simone/Documents/SP028_3analisi/Raw_ClusterRes6_along_CellFromTumor_3.csv" thousands="_x0000_">
+  <connection id="7" xr16:uid="{00000000-0015-0000-FFFF-FFFF06000000}" name="Raw_ClusterRes6_along_CellFromTumor_3" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/simone/Documents/SP028_3analisi/Raw_ClusterRes6_along_CellFromTumor_3.csv" thousands="_x0000_">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -353,8 +354,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" name="Raw_ClusterRes6_along_PatientNumber_3" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/simone/Documents/SP028_3analisi/Raw_ClusterRes6_along_PatientNumber_3.csv" thousands="_x0000_">
+  <connection id="8" xr16:uid="{00000000-0015-0000-FFFF-FFFF07000000}" name="Raw_ClusterRes6_along_PatientNumber_3" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/simone/Documents/SP028_3analisi/Raw_ClusterRes6_along_PatientNumber_3.csv" thousands="_x0000_">
       <textFields count="116">
         <textField/>
         <textField/>
@@ -475,8 +476,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="9" name="Raw_ClusterRes6_along_TumortType_3" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/simone/Documents/SP028_3analisi/Raw_ClusterRes6_along_TumortType_3.csv" thousands="_x0000_">
+  <connection id="9" xr16:uid="{00000000-0015-0000-FFFF-FFFF08000000}" name="Raw_ClusterRes6_along_TumortType_3" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/simone/Documents/SP028_3analisi/Raw_ClusterRes6_along_TumortType_3.csv" thousands="_x0000_">
       <textFields count="12">
         <textField/>
         <textField/>
@@ -497,7 +498,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="143">
   <si>
     <t>dataset</t>
   </si>
@@ -924,11 +925,14 @@
   <si>
     <t>Percent Frequency normalized versus total cluster cell (column)</t>
   </si>
+  <si>
+    <t>Percent Frequency normalized versus total number of dataset cell (raw)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1476,39 +1480,39 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Norm_Index_ClusterRes6_along_PatientNumber_3" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Norm_ClusterRes6_along_PatientNumber_3" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Norm_ClusterRes6_along_PatientNumber_3" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Raw_ClusterRes6_along_PatientNumber_3" connectionId="8" xr16:uid="{00000000-0016-0000-0000-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Raw_ClusterRes6_along_PatientNumber_3" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Norm_Index_ClusterRes6_along_PatientNumber_3" connectionId="4" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Norm_num_cell_versus_dataset_3" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Norm_num_cell_versus_dataset_3" connectionId="6" xr16:uid="{00000000-0016-0000-0100-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Norm_index_ClusterRes6_along_TumortType_3" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Norm_index_ClusterRes6_along_TumortType_3" connectionId="5" xr16:uid="{00000000-0016-0000-0200-000005000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Raw_ClusterRes6_along_TumortType_3" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Raw_ClusterRes6_along_TumortType_3" connectionId="9" xr16:uid="{00000000-0016-0000-0200-000004000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Norm_Col_ClusterRes6_along_CellFromTumor_3" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Norm_index_ClusterRes6_along_CellFromTumor_3" connectionId="3" xr16:uid="{00000000-0016-0000-0300-000008000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Norm_index_ClusterRes6_along_CellFromTumor_3" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Raw_ClusterRes6_along_CellFromTumor_3" connectionId="7" xr16:uid="{00000000-0016-0000-0300-000007000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Raw_ClusterRes6_along_CellFromTumor_3" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Norm_Col_ClusterRes6_along_CellFromTumor_3" connectionId="2" xr16:uid="{00000000-0016-0000-0300-000006000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1807,10 +1811,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DL60"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -21796,7 +21800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -22214,11 +22218,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22962,9 +22966,736 @@
         <v>600</v>
       </c>
     </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0.46617396247868098</v>
+      </c>
+      <c r="C23">
+        <v>12.301587301587301</v>
+      </c>
+      <c r="D23">
+        <v>5.5223880597014903</v>
+      </c>
+      <c r="E23">
+        <v>14.7388657481576</v>
+      </c>
+      <c r="F23">
+        <v>16.796200345423099</v>
+      </c>
+      <c r="G23">
+        <v>2.6844097740048101</v>
+      </c>
+      <c r="H23">
+        <v>3.7145471180237801</v>
+      </c>
+      <c r="I23">
+        <v>4.50086555106751</v>
+      </c>
+      <c r="J23">
+        <v>3.0279800689919498</v>
+      </c>
+      <c r="K23">
+        <v>17.389298892988901</v>
+      </c>
+      <c r="L23">
+        <v>9.0772128060263597</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>0.85275724843661105</v>
+      </c>
+      <c r="C24">
+        <v>9.2970521541950095</v>
+      </c>
+      <c r="D24">
+        <v>4.2537313432835804</v>
+      </c>
+      <c r="E24">
+        <v>9.74046779878244</v>
+      </c>
+      <c r="F24">
+        <v>4.4689119170984402</v>
+      </c>
+      <c r="G24">
+        <v>3.23505793277503</v>
+      </c>
+      <c r="H24">
+        <v>6.6056724611161899</v>
+      </c>
+      <c r="I24">
+        <v>5.3087132140796296</v>
+      </c>
+      <c r="J24">
+        <v>3.4495975469528499</v>
+      </c>
+      <c r="K24">
+        <v>9.7785977859778495</v>
+      </c>
+      <c r="L24">
+        <v>16.723163841807899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>32.575326890278497</v>
+      </c>
+      <c r="C25">
+        <v>18.310657596371801</v>
+      </c>
+      <c r="D25">
+        <v>0.74626865671641696</v>
+      </c>
+      <c r="E25">
+        <v>9.3719961550785005</v>
+      </c>
+      <c r="F25">
+        <v>2.4827288428324699</v>
+      </c>
+      <c r="G25">
+        <v>1.50281059997705</v>
+      </c>
+      <c r="H25">
+        <v>1.3723696248856301</v>
+      </c>
+      <c r="I25">
+        <v>4.2123485285631803</v>
+      </c>
+      <c r="J25">
+        <v>1.83978535837485</v>
+      </c>
+      <c r="K25">
+        <v>6.1808118081180803</v>
+      </c>
+      <c r="L25">
+        <v>0.82862523540489597</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>1.13700966458214E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.45351473922902402</v>
+      </c>
+      <c r="D26">
+        <v>0.82089552238805896</v>
+      </c>
+      <c r="E26">
+        <v>0.65684075616789495</v>
+      </c>
+      <c r="F26">
+        <v>0.45336787564766801</v>
+      </c>
+      <c r="G26">
+        <v>38.786279683377302</v>
+      </c>
+      <c r="H26">
+        <v>0.36596523330283598</v>
+      </c>
+      <c r="I26">
+        <v>0.69244085401038602</v>
+      </c>
+      <c r="J26">
+        <v>0.68991950939057101</v>
+      </c>
+      <c r="K26">
+        <v>0.50738007380073802</v>
+      </c>
+      <c r="L26">
+        <v>0.60263653483992397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>52.950540079590603</v>
+      </c>
+      <c r="C27">
+        <v>2.9478458049886598</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>2.0746555591156599</v>
+      </c>
+      <c r="F27">
+        <v>0.45336787564766801</v>
+      </c>
+      <c r="G27">
+        <v>0.10324652976941601</v>
+      </c>
+      <c r="H27">
+        <v>0.36596523330283598</v>
+      </c>
+      <c r="I27">
+        <v>3.8084246970571201</v>
+      </c>
+      <c r="J27">
+        <v>0.30663089306247598</v>
+      </c>
+      <c r="K27">
+        <v>0.36900369003689998</v>
+      </c>
+      <c r="L27">
+        <v>7.5329566854990496E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>0.42069357589539502</v>
+      </c>
+      <c r="C28">
+        <v>9.5804988662131496</v>
+      </c>
+      <c r="D28">
+        <v>3.6567164179104399</v>
+      </c>
+      <c r="E28">
+        <v>3.0278756808715102</v>
+      </c>
+      <c r="F28">
+        <v>0.51813471502590602</v>
+      </c>
+      <c r="G28">
+        <v>0.34415509923138599</v>
+      </c>
+      <c r="H28">
+        <v>22.159194876486701</v>
+      </c>
+      <c r="I28">
+        <v>23.3121754183496</v>
+      </c>
+      <c r="J28">
+        <v>25.2970486776542</v>
+      </c>
+      <c r="K28">
+        <v>7.9335793357933504</v>
+      </c>
+      <c r="L28">
+        <v>1.73258003766478</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>3.41102899374644E-2</v>
+      </c>
+      <c r="C29">
+        <v>1.3605442176870699</v>
+      </c>
+      <c r="D29">
+        <v>0.82089552238805896</v>
+      </c>
+      <c r="E29">
+        <v>0.616789490547901</v>
+      </c>
+      <c r="F29">
+        <v>0.51813471502590602</v>
+      </c>
+      <c r="G29">
+        <v>26.798210393483899</v>
+      </c>
+      <c r="H29">
+        <v>0.40256175663311899</v>
+      </c>
+      <c r="I29">
+        <v>0.51933064050778999</v>
+      </c>
+      <c r="J29">
+        <v>0.30663089306247598</v>
+      </c>
+      <c r="K29">
+        <v>0.36900369003689998</v>
+      </c>
+      <c r="L29">
+        <v>1.5065913370998101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>1.03467879476975</v>
+      </c>
+      <c r="C30">
+        <v>15.192743764172301</v>
+      </c>
+      <c r="D30">
+        <v>0.22388059701492499</v>
+      </c>
+      <c r="E30">
+        <v>2.4431272028195998</v>
+      </c>
+      <c r="F30">
+        <v>0.32383419689119097</v>
+      </c>
+      <c r="G30">
+        <v>0.72272570838591199</v>
+      </c>
+      <c r="H30">
+        <v>7.97804208600183</v>
+      </c>
+      <c r="I30">
+        <v>19.099826889786499</v>
+      </c>
+      <c r="J30">
+        <v>5.7876581065542299</v>
+      </c>
+      <c r="K30">
+        <v>8.9483394833948307</v>
+      </c>
+      <c r="L30">
+        <v>0.52730696798493404</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>1.29619101762364</v>
+      </c>
+      <c r="C31">
+        <v>8.5600907029478392</v>
+      </c>
+      <c r="D31">
+        <v>14.179104477611901</v>
+      </c>
+      <c r="E31">
+        <v>8.2906119833386693</v>
+      </c>
+      <c r="F31">
+        <v>8.7003454231433501</v>
+      </c>
+      <c r="G31">
+        <v>4.3019387403923304</v>
+      </c>
+      <c r="H31">
+        <v>9.2589204025617509</v>
+      </c>
+      <c r="I31">
+        <v>7.7322562031159796</v>
+      </c>
+      <c r="J31">
+        <v>6.7842085090072803</v>
+      </c>
+      <c r="K31">
+        <v>8.9483394833948307</v>
+      </c>
+      <c r="L31">
+        <v>1.7702448210922701</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>0.20466173962478601</v>
+      </c>
+      <c r="C32">
+        <v>4.1383219954648496</v>
+      </c>
+      <c r="D32">
+        <v>4.7761194029850698</v>
+      </c>
+      <c r="E32">
+        <v>12.664210189041899</v>
+      </c>
+      <c r="F32">
+        <v>0.88514680483592401</v>
+      </c>
+      <c r="G32">
+        <v>0.49328897556498702</v>
+      </c>
+      <c r="H32">
+        <v>7.7950594693504103</v>
+      </c>
+      <c r="I32">
+        <v>3.000577034045</v>
+      </c>
+      <c r="J32">
+        <v>10.0804906094289</v>
+      </c>
+      <c r="K32">
+        <v>4.8431734317343098</v>
+      </c>
+      <c r="L32">
+        <v>1.1299435028248499</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>4.3774872086412699</v>
+      </c>
+      <c r="C33">
+        <v>5.4421768707482903</v>
+      </c>
+      <c r="D33">
+        <v>5.8208955223880503</v>
+      </c>
+      <c r="E33">
+        <v>9.1717398269785306</v>
+      </c>
+      <c r="F33">
+        <v>14.162348877374701</v>
+      </c>
+      <c r="G33">
+        <v>8.4547436044510693</v>
+      </c>
+      <c r="H33">
+        <v>9.09423604757548</v>
+      </c>
+      <c r="I33">
+        <v>6.7512983266012698</v>
+      </c>
+      <c r="J33">
+        <v>7.4741280183978498</v>
+      </c>
+      <c r="K33">
+        <v>9.8247232472324697</v>
+      </c>
+      <c r="L33">
+        <v>5.0847457627118597</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>2.63786242183058</v>
+      </c>
+      <c r="C34">
+        <v>1.1337868480725599</v>
+      </c>
+      <c r="D34">
+        <v>6.3432835820895503</v>
+      </c>
+      <c r="E34">
+        <v>8.51489907081063</v>
+      </c>
+      <c r="F34">
+        <v>1.6623488773747801</v>
+      </c>
+      <c r="G34">
+        <v>1.18159917402776</v>
+      </c>
+      <c r="H34">
+        <v>2.94602012808783</v>
+      </c>
+      <c r="I34">
+        <v>5.8280438545874196</v>
+      </c>
+      <c r="J34">
+        <v>2.10808738980452</v>
+      </c>
+      <c r="K34">
+        <v>3.45940959409594</v>
+      </c>
+      <c r="L34">
+        <v>10.1318267419962</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>0.42069357589539502</v>
+      </c>
+      <c r="C35">
+        <v>4.4217687074829897</v>
+      </c>
+      <c r="D35">
+        <v>28.8805970149253</v>
+      </c>
+      <c r="E35">
+        <v>3.7808394745273901</v>
+      </c>
+      <c r="F35">
+        <v>0.99309153713298703</v>
+      </c>
+      <c r="G35">
+        <v>1.7093036595158799</v>
+      </c>
+      <c r="H35">
+        <v>9.1491308325709007</v>
+      </c>
+      <c r="I35">
+        <v>5.1356030005770297</v>
+      </c>
+      <c r="J35">
+        <v>15.561517822920599</v>
+      </c>
+      <c r="K35">
+        <v>8.7638376383763799</v>
+      </c>
+      <c r="L35">
+        <v>3.54048964218455</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>13</v>
+      </c>
+      <c r="B36">
+        <v>2.1489482660602599</v>
+      </c>
+      <c r="C36">
+        <v>2.5510204081632599</v>
+      </c>
+      <c r="D36">
+        <v>0.89552238805970097</v>
+      </c>
+      <c r="E36">
+        <v>1.8904197372636899</v>
+      </c>
+      <c r="F36">
+        <v>3.2599309153713301</v>
+      </c>
+      <c r="G36">
+        <v>6.1374326029597297</v>
+      </c>
+      <c r="H36">
+        <v>10.503202195791401</v>
+      </c>
+      <c r="I36">
+        <v>3.8084246970571201</v>
+      </c>
+      <c r="J36">
+        <v>10.923725565350701</v>
+      </c>
+      <c r="K36">
+        <v>2.0756457564575599</v>
+      </c>
+      <c r="L36">
+        <v>1.6572504708097899</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>14</v>
+      </c>
+      <c r="B37">
+        <v>0.32973280272882299</v>
+      </c>
+      <c r="C37">
+        <v>0.11337868480725601</v>
+      </c>
+      <c r="D37">
+        <v>0.22388059701492499</v>
+      </c>
+      <c r="E37">
+        <v>0.38449214995193798</v>
+      </c>
+      <c r="F37">
+        <v>18.177892918825499</v>
+      </c>
+      <c r="G37">
+        <v>3.4415509923138597E-2</v>
+      </c>
+      <c r="H37">
+        <v>0.146386093321134</v>
+      </c>
+      <c r="I37">
+        <v>1.6733987305250999</v>
+      </c>
+      <c r="J37">
+        <v>0.15331544653123799</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0.225988700564971</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <v>5.68504832291074E-2</v>
+      </c>
+      <c r="C38">
+        <v>2.7210884353741398</v>
+      </c>
+      <c r="D38">
+        <v>6.4925373134328304</v>
+      </c>
+      <c r="E38">
+        <v>9.6203140019224591</v>
+      </c>
+      <c r="F38">
+        <v>2.0509499136442102</v>
+      </c>
+      <c r="G38">
+        <v>1.6748881495927399</v>
+      </c>
+      <c r="H38">
+        <v>3.5498627630375101</v>
+      </c>
+      <c r="I38">
+        <v>2.8274668205424098</v>
+      </c>
+      <c r="J38">
+        <v>3.8712150249137598</v>
+      </c>
+      <c r="K38">
+        <v>4.8892988929889203</v>
+      </c>
+      <c r="L38">
+        <v>10.6591337099811</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>16</v>
+      </c>
+      <c r="B39">
+        <v>0.14781125639567899</v>
+      </c>
+      <c r="C39">
+        <v>1.1337868480725599</v>
+      </c>
+      <c r="D39">
+        <v>8.7313432835820901</v>
+      </c>
+      <c r="E39">
+        <v>2.87568087151553</v>
+      </c>
+      <c r="F39">
+        <v>24.0716753022452</v>
+      </c>
+      <c r="G39">
+        <v>1.82402202592635</v>
+      </c>
+      <c r="H39">
+        <v>3.5498627630375101</v>
+      </c>
+      <c r="I39">
+        <v>0.63473744950952105</v>
+      </c>
+      <c r="J39">
+        <v>1.95477194327328</v>
+      </c>
+      <c r="K39">
+        <v>2.81365313653136</v>
+      </c>
+      <c r="L39">
+        <v>34.500941619585603</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>17</v>
+      </c>
+      <c r="B40">
+        <v>3.41102899374644E-2</v>
+      </c>
+      <c r="C40">
+        <v>0.34013605442176797</v>
+      </c>
+      <c r="D40">
+        <v>7.6119402985074602</v>
+      </c>
+      <c r="E40">
+        <v>0.13617430310797801</v>
+      </c>
+      <c r="F40">
+        <v>2.15889464594127E-2</v>
+      </c>
+      <c r="G40">
+        <v>1.14718366410462E-2</v>
+      </c>
+      <c r="H40">
+        <v>1.0430009149130799</v>
+      </c>
+      <c r="I40">
+        <v>1.1540680900173099</v>
+      </c>
+      <c r="J40">
+        <v>0.38328861632809502</v>
+      </c>
+      <c r="K40">
+        <v>2.9059040590405898</v>
+      </c>
+      <c r="L40">
+        <v>0.225988700564971</v>
+      </c>
+    </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -23695,10 +24426,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
